--- a/va_facility_data_2025-02-20/Iowa City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Iowa%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Iowa City VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Iowa%20City%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6883ccbcd60644a6bed50a91d9eb9153"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R26689e3c1176414c83ed80e4f71d3191"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf74862aab2c14ccc84c889873339a83a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R11accd6978674d4aa472861f5b2b8caf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra782bd1006e54d49a95b793f4be8f251"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd8203c8cc3dd4394a0f84e3dc0e29ac1"/>
   </x:sheets>
 </x:workbook>
 </file>
